--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PY_battery_manufacturing_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PY_battery_manufacturing_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{0625554A-EAB6-4309-B30A-9369E67BE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E66DBDA6-B0B9-4F61-ACFE-D04496006F67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDC141-901C-4382-8FFF-236B09411E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>3_PY_battery_manufacturing</t>
   </si>
   <si>
-    <t>process yields</t>
-  </si>
-  <si>
     <t>percentage</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Yield_Scenario</t>
+  </si>
+  <si>
+    <t>process yields based on BatPaC v5</t>
   </si>
 </sst>
 </file>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -985,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1239,22 +1239,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>23</v>
@@ -1273,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>23</v>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDE9FA-34B5-487F-BD06-B5E05371CD58}">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
@@ -1429,10 +1429,10 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="2" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="20">
         <v>0.99</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="21">
         <v>0.95</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0.99</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0.94</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0.99</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0.92</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0.995</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0.98</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0.95</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0.99</v>
